--- a/Code/Results/Cases/Case_2_87/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_87/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.63828705753471</v>
+        <v>8.011001628657882</v>
       </c>
       <c r="C2">
-        <v>7.203642719172255</v>
+        <v>6.755142719956887</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.66740407195123</v>
+        <v>13.14754306142227</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>16.41452752366613</v>
+        <v>23.8715216965779</v>
       </c>
       <c r="H2">
-        <v>7.865310321200401</v>
+        <v>13.23310748839243</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.3901744429295</v>
+        <v>8.629603700096226</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.54379674169579</v>
+        <v>12.95800125640976</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.00826966775991</v>
+        <v>19.46139881450973</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.88358553360041</v>
+        <v>7.672958716067894</v>
       </c>
       <c r="C3">
-        <v>7.027786842583575</v>
+        <v>6.692283743844301</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.81927095197984</v>
+        <v>12.95316928396511</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>16.63539847740688</v>
+        <v>24.04615748948496</v>
       </c>
       <c r="H3">
-        <v>8.006928010144398</v>
+        <v>13.29217416085658</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.85385108337689</v>
+        <v>8.387501410138352</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.63871692325828</v>
+        <v>12.7654934613102</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.23775764716989</v>
+        <v>19.57202063186291</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.39472113752304</v>
+        <v>7.458085905726442</v>
       </c>
       <c r="C4">
-        <v>6.918247383338979</v>
+        <v>6.653560038342963</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.28507174551094</v>
+        <v>12.83725739950132</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>16.80058656922729</v>
+        <v>24.16233712943177</v>
       </c>
       <c r="H4">
-        <v>8.098445338208508</v>
+        <v>13.33059209240318</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.51015462924018</v>
+        <v>8.233978172207777</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.05354951731803</v>
+        <v>12.6485670906986</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.38995651421064</v>
+        <v>19.64437482887959</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.18913841973278</v>
+        <v>7.368803943409917</v>
       </c>
       <c r="C5">
-        <v>6.873262604201178</v>
+        <v>6.637758667061432</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.06424289787896</v>
+        <v>12.79095244566524</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>16.87484680144184</v>
+        <v>24.21192068588886</v>
       </c>
       <c r="H5">
-        <v>8.136859557714764</v>
+        <v>13.34678915737474</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.36657836536432</v>
+        <v>8.170251199112888</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.80768793040917</v>
+        <v>12.60129813252724</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.45468695503794</v>
+        <v>19.67497352588882</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.15461850963819</v>
+        <v>7.353878681304884</v>
       </c>
       <c r="C6">
-        <v>6.86577339760959</v>
+        <v>6.63513390672716</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.02739299823005</v>
+        <v>12.78332161821348</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>16.88758315019646</v>
+        <v>24.22028891053557</v>
       </c>
       <c r="H6">
-        <v>8.143305125943193</v>
+        <v>13.34951138826682</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.342528559336</v>
+        <v>8.159600868551745</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.76641616993235</v>
+        <v>12.59347379710158</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.46559535615105</v>
+        <v>19.68012166688661</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.39197429139351</v>
+        <v>7.456888611132573</v>
       </c>
       <c r="C7">
-        <v>6.917642042598092</v>
+        <v>6.653347006560695</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.28210591897911</v>
+        <v>12.83662906259368</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>16.8015605833891</v>
+        <v>24.16299677882299</v>
       </c>
       <c r="H7">
-        <v>8.098958904080531</v>
+        <v>13.33080833855965</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.50823240196785</v>
+        <v>8.233123362218031</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.05026369432574</v>
+        <v>12.647927990695</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.39081869086419</v>
+        <v>19.64478298483609</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.38337203032178</v>
+        <v>7.896029162537027</v>
       </c>
       <c r="C8">
-        <v>7.143359099470019</v>
+        <v>6.73350214751334</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.37788662659635</v>
+        <v>13.07985066402796</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>16.48424416041862</v>
+        <v>23.92987089768259</v>
       </c>
       <c r="H8">
-        <v>7.913175458186104</v>
+        <v>13.25302766006859</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.20829242064642</v>
+        <v>8.547172355139763</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.23783379483654</v>
+        <v>12.89139563573054</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.08497042053771</v>
+        <v>19.49862094813845</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.12439256521028</v>
+        <v>8.694664400355242</v>
       </c>
       <c r="C9">
-        <v>7.571694722447619</v>
+        <v>6.889186830495156</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.42486896535416</v>
+        <v>13.58105010518545</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>16.11951606611832</v>
+        <v>23.54427762380483</v>
       </c>
       <c r="H9">
-        <v>7.58647624094381</v>
+        <v>13.11753688120166</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.46336373432772</v>
+        <v>9.121983643947454</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.33362353135299</v>
+        <v>13.37634508814354</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.58139184700766</v>
+        <v>19.24719406423778</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.27925222913806</v>
+        <v>9.238242901643519</v>
       </c>
       <c r="C10">
-        <v>7.875378471774663</v>
+        <v>7.002012406740696</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>18.03641021996758</v>
+        <v>13.95996491341444</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>16.04058509595133</v>
+        <v>23.30534443816785</v>
       </c>
       <c r="H10">
-        <v>7.371658045114946</v>
+        <v>13.02833820372544</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.31005038128387</v>
+        <v>9.51642522053937</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.73303362375376</v>
+        <v>13.73376203371653</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.28027197723753</v>
+        <v>19.08397080824636</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.77774088156917</v>
+        <v>9.475323631505415</v>
       </c>
       <c r="C11">
-        <v>8.010722117779087</v>
+        <v>7.052867561283764</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.74002117803073</v>
+        <v>14.13379342251054</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>16.0525969586972</v>
+        <v>23.20644034478092</v>
       </c>
       <c r="H11">
-        <v>7.280012845601942</v>
+        <v>12.98999797312735</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.67835817691136</v>
+        <v>9.689302830863248</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.33974651250841</v>
+        <v>13.8958911287724</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.16081825052374</v>
+        <v>19.01439568468466</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.96265882386282</v>
+        <v>9.563577943423891</v>
       </c>
       <c r="C12">
-        <v>8.061539724405344</v>
+        <v>7.07204643670733</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>19.00231584557776</v>
+        <v>14.1997562087586</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>16.06458138527247</v>
+        <v>23.17040890214407</v>
       </c>
       <c r="H12">
-        <v>7.246243160215532</v>
+        <v>12.97580063875364</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.81537579787853</v>
+        <v>9.753787272804272</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.56525114724643</v>
+        <v>13.95716131366872</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.1183462953717</v>
+        <v>18.98872297171405</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.92300433146705</v>
+        <v>9.544639347756661</v>
       </c>
       <c r="C13">
-        <v>8.050615005272533</v>
+        <v>7.067919608268963</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.94600885008717</v>
+        <v>14.18554494569816</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>16.06166124094304</v>
+        <v>23.17810547876824</v>
       </c>
       <c r="H13">
-        <v>7.253473457879875</v>
+        <v>12.97884400514739</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.78597603944264</v>
+        <v>9.739943565065971</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.51687253132078</v>
+        <v>13.94397212939678</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.12736643320981</v>
+        <v>18.99422205453228</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.79303122838922</v>
+        <v>9.482615185029076</v>
       </c>
       <c r="C14">
-        <v>8.014911777478931</v>
+        <v>7.05444706358527</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.76168286577016</v>
+        <v>14.1392178670244</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>16.05343087799252</v>
+        <v>23.20344744950519</v>
       </c>
       <c r="H14">
-        <v>7.277215491139959</v>
+        <v>12.9888235129188</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.68967998374075</v>
+        <v>9.694627859060931</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.35838364645512</v>
+        <v>13.90093468689025</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.15726722544677</v>
+        <v>19.01227006088646</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.71291822684929</v>
+        <v>9.444423715034391</v>
       </c>
       <c r="C15">
-        <v>7.992985129382031</v>
+        <v>7.046184137851368</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.64824071013791</v>
+        <v>14.11085701942395</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>16.04937361027841</v>
+        <v>23.21915565986136</v>
       </c>
       <c r="H15">
-        <v>7.291881790479578</v>
+        <v>12.99497807947602</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.63037577907956</v>
+        <v>9.666741928608255</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.26075359375419</v>
+        <v>13.87455509264836</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.17594965685845</v>
+        <v>19.02341278980397</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.24613532791139</v>
+        <v>9.222538887424205</v>
       </c>
       <c r="C16">
-        <v>7.866474305338846</v>
+        <v>6.998678477764781</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.98984186988774</v>
+        <v>13.94862796334798</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>16.04081153145645</v>
+        <v>23.3120061965673</v>
       </c>
       <c r="H16">
-        <v>7.377774544430844</v>
+        <v>13.03088880503152</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.28563875652203</v>
+        <v>9.504992015480267</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.69278650189326</v>
+        <v>13.72315220688851</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.28845145450665</v>
+        <v>19.08861192299438</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.95290688806044</v>
+        <v>9.083765005074232</v>
       </c>
       <c r="C17">
-        <v>7.788122810948176</v>
+        <v>6.969406858776045</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.57844510677252</v>
+        <v>13.84942745564351</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>16.04822771703924</v>
+        <v>23.37148375874567</v>
       </c>
       <c r="H17">
-        <v>7.43206391259187</v>
+        <v>13.05349148235706</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.0698132930439</v>
+        <v>9.404056365673355</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.33673801610797</v>
+        <v>13.63011118226577</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.36212220676284</v>
+        <v>19.12980813067812</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.7817199364651</v>
+        <v>9.00298904813101</v>
       </c>
       <c r="C18">
-        <v>7.742794840973557</v>
+        <v>6.95252704587834</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.33903874282097</v>
+        <v>13.79251142607727</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>16.05697214693205</v>
+        <v>23.40661411596621</v>
       </c>
       <c r="H18">
-        <v>7.463857598159048</v>
+        <v>13.06670249245424</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.94409086684237</v>
+        <v>9.345385779199674</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.12913167390517</v>
+        <v>13.57655635945497</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.40612958658173</v>
+        <v>19.15394312908168</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.72332417193468</v>
+        <v>8.97547722973462</v>
       </c>
       <c r="C19">
-        <v>7.727403525586138</v>
+        <v>6.946804699397367</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.25749945976042</v>
+        <v>13.77326715588368</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>16.06068507596483</v>
+        <v>23.4186663146802</v>
       </c>
       <c r="H19">
-        <v>7.474718212940402</v>
+        <v>13.07121168654305</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.90125217312989</v>
+        <v>9.325416506949111</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.05835447308698</v>
+        <v>13.5584185366398</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.42130333350583</v>
+        <v>19.16219035656756</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.98438328942987</v>
+        <v>9.098637196264567</v>
       </c>
       <c r="C20">
-        <v>7.79649083975175</v>
+        <v>6.972527462686115</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.62252627093702</v>
+        <v>13.85997340338095</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>16.04697067453846</v>
+        <v>23.36505690844777</v>
       </c>
       <c r="H20">
-        <v>7.426225530715319</v>
+        <v>13.05106360049874</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.09295259759555</v>
+        <v>9.414865082194858</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.37493113887657</v>
+        <v>13.64002013472333</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.35410904125486</v>
+        <v>19.12537717218283</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.83131179639506</v>
+        <v>9.500874929187658</v>
       </c>
       <c r="C21">
-        <v>8.025410691277965</v>
+        <v>7.058406506099836</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.81593563791686</v>
+        <v>14.152822080892</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>16.05564232505764</v>
+        <v>23.19596521093012</v>
       </c>
       <c r="H21">
-        <v>7.270215998741316</v>
+        <v>12.98588357286457</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.71803121449222</v>
+        <v>9.70796507415306</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.40505040329723</v>
+        <v>13.91357966211969</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.14840762299415</v>
+        <v>19.00695062292164</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.36240478693189</v>
+        <v>9.754862808554691</v>
       </c>
       <c r="C22">
-        <v>8.172480939193923</v>
+        <v>7.114068633314158</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.57177442575279</v>
+        <v>14.34498619469631</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>16.10488149261482</v>
+        <v>23.09374547922972</v>
       </c>
       <c r="H22">
-        <v>7.173735095722016</v>
+        <v>12.94515716973854</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.11225395919513</v>
+        <v>9.893792638417809</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.05358345150893</v>
+        <v>14.0916149149844</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.03020037469983</v>
+        <v>18.93348063869568</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.08099611728394</v>
+        <v>9.620135417270486</v>
       </c>
       <c r="C23">
-        <v>8.094228696067937</v>
+        <v>7.084406917982807</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.17054247895461</v>
+        <v>14.24237739362315</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>16.07444258864181</v>
+        <v>23.14753878524421</v>
       </c>
       <c r="H23">
-        <v>7.224705127435785</v>
+        <v>12.96672239308146</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.90316567145291</v>
+        <v>9.795148765498192</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.70969055192139</v>
+        <v>13.99668163188978</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.09171896893281</v>
+        <v>18.97233297366541</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.97016092651698</v>
+        <v>9.091916567209706</v>
       </c>
       <c r="C24">
-        <v>7.79270853194052</v>
+        <v>6.971116796186097</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.60260618171827</v>
+        <v>13.85520521463294</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>16.04752506862275</v>
+        <v>23.36795957319389</v>
       </c>
       <c r="H24">
-        <v>7.428863254821931</v>
+        <v>13.05216057168485</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.0824964285911</v>
+        <v>9.409980456189357</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.35767309390583</v>
+        <v>13.63554049313139</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.35772666245871</v>
+        <v>19.12737900455648</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.67522901428427</v>
+        <v>8.485876911425159</v>
       </c>
       <c r="C25">
-        <v>7.457599205214375</v>
+        <v>6.847297117996688</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.87494395084159</v>
+        <v>13.44328881306046</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>16.18733306033294</v>
+        <v>23.64085394517465</v>
       </c>
       <c r="H25">
-        <v>7.670614514998872</v>
+        <v>13.15237101163763</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.13686873243816</v>
+        <v>8.971188152992282</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.79146797517289</v>
+        <v>13.24470915257766</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.7063372992819</v>
+        <v>19.31143948694925</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_87/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_87/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.011001628657882</v>
+        <v>12.63828705753475</v>
       </c>
       <c r="C2">
-        <v>6.755142719956887</v>
+        <v>7.203642719172263</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.14754306142227</v>
+        <v>14.66740407195124</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>23.8715216965779</v>
+        <v>16.4145275236659</v>
       </c>
       <c r="H2">
-        <v>13.23310748839243</v>
+        <v>7.865310321200343</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.629603700096226</v>
+        <v>11.39017444292955</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.95800125640976</v>
+        <v>14.54379674169579</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.46139881450973</v>
+        <v>12.00826966775982</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.672958716067894</v>
+        <v>11.88358553360038</v>
       </c>
       <c r="C3">
-        <v>6.692283743844301</v>
+        <v>7.027786842583764</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.95316928396511</v>
+        <v>13.81927095197981</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>24.04615748948496</v>
+        <v>16.63539847740727</v>
       </c>
       <c r="H3">
-        <v>13.29217416085658</v>
+        <v>8.006928010144462</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.387501410138352</v>
+        <v>10.85385108337691</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.7654934613102</v>
+        <v>13.63871692325828</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.57202063186291</v>
+        <v>12.23775764717006</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.458085905726442</v>
+        <v>11.3947211375229</v>
       </c>
       <c r="C4">
-        <v>6.653560038342963</v>
+        <v>6.918247383339311</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.83725739950132</v>
+        <v>13.28507174551096</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>24.16233712943177</v>
+        <v>16.80058656922741</v>
       </c>
       <c r="H4">
-        <v>13.33059209240318</v>
+        <v>8.09844533820857</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.233978172207777</v>
+        <v>10.51015462924012</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.6485670906986</v>
+        <v>13.05354951731795</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.64437482887959</v>
+        <v>12.38995651421076</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.368803943409917</v>
+        <v>11.18913841973288</v>
       </c>
       <c r="C5">
-        <v>6.637758667061432</v>
+        <v>6.873262604201059</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.79095244566524</v>
+        <v>13.0642428978789</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>24.21192068588886</v>
+        <v>16.87484680144146</v>
       </c>
       <c r="H5">
-        <v>13.34678915737474</v>
+        <v>8.136859557714629</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.170251199112888</v>
+        <v>10.36657836536435</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.60129813252724</v>
+        <v>12.80768793040924</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.67497352588882</v>
+        <v>12.45468695503765</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.353878681304884</v>
+        <v>11.15461850963825</v>
       </c>
       <c r="C6">
-        <v>6.63513390672716</v>
+        <v>6.865773397609601</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.78332161821348</v>
+        <v>13.02739299823004</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>24.22028891053557</v>
+        <v>16.88758315019656</v>
       </c>
       <c r="H6">
-        <v>13.34951138826682</v>
+        <v>8.143305125943129</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.159600868551745</v>
+        <v>10.34252855933605</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.59347379710158</v>
+        <v>12.76641616993236</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.68012166688661</v>
+        <v>12.46559535615098</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.456888611132573</v>
+        <v>11.39197429139343</v>
       </c>
       <c r="C7">
-        <v>6.653347006560695</v>
+        <v>6.917642042598443</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.83662906259368</v>
+        <v>13.28210591897908</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>24.16299677882299</v>
+        <v>16.80156058338896</v>
       </c>
       <c r="H7">
-        <v>13.33080833855965</v>
+        <v>8.098958904080648</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.233123362218031</v>
+        <v>10.50823240196787</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.647927990695</v>
+        <v>13.05026369432574</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.64478298483609</v>
+        <v>12.39081869086426</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.896029162537027</v>
+        <v>12.38337203032181</v>
       </c>
       <c r="C8">
-        <v>6.73350214751334</v>
+        <v>7.143359099470007</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.07985066402796</v>
+        <v>14.37788662659633</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>23.92987089768259</v>
+        <v>16.48424416041879</v>
       </c>
       <c r="H8">
-        <v>13.25302766006859</v>
+        <v>7.913175458186108</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.547172355139763</v>
+        <v>11.20829242064639</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.89139563573054</v>
+        <v>14.23783379483655</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.49862094813845</v>
+        <v>12.08497042053779</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.694664400355242</v>
+        <v>14.12439256521029</v>
       </c>
       <c r="C9">
-        <v>6.889186830495156</v>
+        <v>7.571694722447726</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.58105010518545</v>
+        <v>16.42486896535415</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>23.54427762380483</v>
+        <v>16.11951606611806</v>
       </c>
       <c r="H9">
-        <v>13.11753688120166</v>
+        <v>7.586476240943747</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.121983643947454</v>
+        <v>12.46336373432774</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.37634508814354</v>
+        <v>16.333623531353</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.24719406423778</v>
+        <v>11.58139184700753</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.238242901643519</v>
+        <v>15.27925222913809</v>
       </c>
       <c r="C10">
-        <v>7.002012406740696</v>
+        <v>7.875378471774765</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.95996491341444</v>
+        <v>18.03641021996757</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>23.30534443816785</v>
+        <v>16.04058509595104</v>
       </c>
       <c r="H10">
-        <v>13.02833820372544</v>
+        <v>7.371658045114884</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.51642522053937</v>
+        <v>13.31005038128391</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13.73376203371653</v>
+        <v>17.73303362375379</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.08397080824636</v>
+        <v>11.28027197723735</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.475323631505415</v>
+        <v>15.77774088156919</v>
       </c>
       <c r="C11">
-        <v>7.052867561283764</v>
+        <v>8.010722117779178</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.13379342251054</v>
+        <v>18.74002117803074</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>23.20644034478092</v>
+        <v>16.05259695869726</v>
       </c>
       <c r="H11">
-        <v>12.98999797312735</v>
+        <v>7.280012845601937</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.689302830863248</v>
+        <v>13.67835817691139</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>13.8958911287724</v>
+        <v>18.33974651250842</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.01439568468466</v>
+        <v>11.16081825052376</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.563577943423891</v>
+        <v>15.96265882386284</v>
       </c>
       <c r="C12">
-        <v>7.07204643670733</v>
+        <v>8.061539724405407</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.1997562087586</v>
+        <v>19.00231584557778</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>23.17040890214407</v>
+        <v>16.06458138527247</v>
       </c>
       <c r="H12">
-        <v>12.97580063875364</v>
+        <v>7.246243160215529</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.753787272804272</v>
+        <v>13.81537579787851</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>13.95716131366872</v>
+        <v>18.56525114724645</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.98872297171405</v>
+        <v>11.11834629537166</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.544639347756661</v>
+        <v>15.92300433146704</v>
       </c>
       <c r="C13">
-        <v>7.067919608268963</v>
+        <v>8.050615005272583</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.18554494569816</v>
+        <v>18.94600885008719</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>23.17810547876824</v>
+        <v>16.06166124094295</v>
       </c>
       <c r="H13">
-        <v>12.97884400514739</v>
+        <v>7.253473457879754</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.739943565065971</v>
+        <v>13.78597603944265</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>13.94397212939678</v>
+        <v>18.51687253132079</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.99422205453228</v>
+        <v>11.12736643320974</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.482615185029076</v>
+        <v>15.79303122838926</v>
       </c>
       <c r="C14">
-        <v>7.05444706358527</v>
+        <v>8.014911777479057</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.1392178670244</v>
+        <v>18.76168286577022</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>23.20344744950519</v>
+        <v>16.05343087799248</v>
       </c>
       <c r="H14">
-        <v>12.9888235129188</v>
+        <v>7.277215491139841</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.694627859060931</v>
+        <v>13.68967998374079</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>13.90093468689025</v>
+        <v>18.35838364645518</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.01227006088646</v>
+        <v>11.15726722544671</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.444423715034391</v>
+        <v>15.71291822684929</v>
       </c>
       <c r="C15">
-        <v>7.046184137851368</v>
+        <v>7.992985129381956</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.11085701942395</v>
+        <v>18.64824071013788</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>23.21915565986136</v>
+        <v>16.04937361027828</v>
       </c>
       <c r="H15">
-        <v>12.99497807947602</v>
+        <v>7.291881790479526</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.666741928608255</v>
+        <v>13.63037577907954</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>13.87455509264836</v>
+        <v>18.26075359375418</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.02341278980397</v>
+        <v>11.17594965685833</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.222538887424205</v>
+        <v>15.24613532791137</v>
       </c>
       <c r="C16">
-        <v>6.998678477764781</v>
+        <v>7.866474305338664</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.94862796334798</v>
+        <v>17.9898418698878</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>23.3120061965673</v>
+        <v>16.0408115314564</v>
       </c>
       <c r="H16">
-        <v>13.03088880503152</v>
+        <v>7.377774544430837</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.504992015480267</v>
+        <v>13.28563875652201</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.72315220688851</v>
+        <v>17.69278650189329</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.08861192299438</v>
+        <v>11.28845145450663</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.083765005074232</v>
+        <v>14.95290688806051</v>
       </c>
       <c r="C17">
-        <v>6.969406858776045</v>
+        <v>7.788122810948199</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.84942745564351</v>
+        <v>17.57844510677254</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>23.37148375874567</v>
+        <v>16.04822771703898</v>
       </c>
       <c r="H17">
-        <v>13.05349148235706</v>
+        <v>7.432063912591729</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.404056365673355</v>
+        <v>13.06981329304394</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.63011118226577</v>
+        <v>17.33673801610799</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.12980813067812</v>
+        <v>11.36212220676259</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.00298904813101</v>
+        <v>14.78171993646516</v>
       </c>
       <c r="C18">
-        <v>6.95252704587834</v>
+        <v>7.742794840973663</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.79251142607727</v>
+        <v>17.33903874282096</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>23.40661411596621</v>
+        <v>16.05697214693186</v>
       </c>
       <c r="H18">
-        <v>13.06670249245424</v>
+        <v>7.463857598158986</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.345385779199674</v>
+        <v>12.94409086684242</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.57655635945497</v>
+        <v>17.1291316739052</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.15394312908168</v>
+        <v>11.40612958658159</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.97547722973462</v>
+        <v>14.72332417193467</v>
       </c>
       <c r="C19">
-        <v>6.946804699397367</v>
+        <v>7.727403525586256</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.77326715588368</v>
+        <v>17.25749945976041</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>23.4186663146802</v>
+        <v>16.06068507596475</v>
       </c>
       <c r="H19">
-        <v>13.07121168654305</v>
+        <v>7.474718212940402</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.325416506949111</v>
+        <v>12.90125217312992</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.5584185366398</v>
+        <v>17.05835447308699</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.16219035656756</v>
+        <v>11.42130333350577</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.098637196264567</v>
+        <v>14.98438328942988</v>
       </c>
       <c r="C20">
-        <v>6.972527462686115</v>
+        <v>7.796490839751947</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.85997340338095</v>
+        <v>17.62252627093704</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>23.36505690844777</v>
+        <v>16.04697067453843</v>
       </c>
       <c r="H20">
-        <v>13.05106360049874</v>
+        <v>7.426225530715265</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.414865082194858</v>
+        <v>13.09295259759559</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.64002013472333</v>
+        <v>17.37493113887659</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.12537717218283</v>
+        <v>11.3541090412548</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.500874929187658</v>
+        <v>15.831311796395</v>
       </c>
       <c r="C21">
-        <v>7.058406506099836</v>
+        <v>8.025410691278237</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.152822080892</v>
+        <v>18.81593563791688</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>23.19596521093012</v>
+        <v>16.05564232505784</v>
       </c>
       <c r="H21">
-        <v>12.98588357286457</v>
+        <v>7.270215998741389</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.70796507415306</v>
+        <v>13.71803121449223</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>13.91357966211969</v>
+        <v>18.40505040329723</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.00695062292164</v>
+        <v>11.14840762299426</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.754862808554691</v>
+        <v>16.36240478693182</v>
       </c>
       <c r="C22">
-        <v>7.114068633314158</v>
+        <v>8.172480939194122</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.34498619469631</v>
+        <v>19.57177442575276</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>23.09374547922972</v>
+        <v>16.10488149261492</v>
       </c>
       <c r="H22">
-        <v>12.94515716973854</v>
+        <v>7.17373509572206</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.893792638417809</v>
+        <v>14.1122539591951</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.0916149149844</v>
+        <v>19.05358345150889</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.93348063869568</v>
+        <v>11.03020037469994</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.620135417270486</v>
+        <v>16.08099611728396</v>
       </c>
       <c r="C23">
-        <v>7.084406917982807</v>
+        <v>8.094228696068011</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.24237739362315</v>
+        <v>19.17054247895461</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>23.14753878524421</v>
+        <v>16.07444258864188</v>
       </c>
       <c r="H23">
-        <v>12.96672239308146</v>
+        <v>7.224705127435907</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.795148765498192</v>
+        <v>13.90316567145293</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>13.99668163188978</v>
+        <v>18.7096905519214</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.97233297366541</v>
+        <v>11.09171896893288</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.091916567209706</v>
+        <v>14.97016092651687</v>
       </c>
       <c r="C24">
-        <v>6.971116796186097</v>
+        <v>7.792708531940982</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.85520521463294</v>
+        <v>17.6026061817183</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>23.36795957319389</v>
+        <v>16.04752506862285</v>
       </c>
       <c r="H24">
-        <v>13.05216057168485</v>
+        <v>7.428863254822003</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.409980456189357</v>
+        <v>13.08249642859113</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.63554049313139</v>
+        <v>17.35767309390588</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.12737900455648</v>
+        <v>11.35772666245878</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.485876911425159</v>
+        <v>13.67522901428427</v>
       </c>
       <c r="C25">
-        <v>6.847297117996688</v>
+        <v>7.457599205214269</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.44328881306046</v>
+        <v>15.8749439508416</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>23.64085394517465</v>
+        <v>16.18733306033295</v>
       </c>
       <c r="H25">
-        <v>13.15237101163763</v>
+        <v>7.670614514998991</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.971188152992282</v>
+        <v>12.13686873243815</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.24470915257766</v>
+        <v>15.79146797517284</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.31143948694925</v>
+        <v>11.70633729928196</v>
       </c>
     </row>
   </sheetData>
